--- a/biology/Botanique/Campanule_des_Carpathes/Campanule_des_Carpathes.xlsx
+++ b/biology/Botanique/Campanule_des_Carpathes/Campanule_des_Carpathes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campanule des Carpates, Campanule des Carpathes
 Campanula carpatica, de noms commun Campanule des Carpates (aussi orthographié Carpathes) est une espèce de plantes à fleurs herbacée, vivace ou bisannuelle, du genre Campanula et de la famille des Campanulaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante formant des touffes basses de 20 à 30 cm, à nombreuses tiges frêles portant à leur base des feuilles en forme de cœur et, à leur sommet, de larges fleurs en cloches évasées, groupées en grappes en mai-juin et souvent jusqu’en août.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Europe centrale, présente à l'état sauvage en Pologne, République tchèque, Slovaquie, Hongrie, Ukraine, Roumanie, Serbie et Croatie. Elle pousse dans les forêts et sur les rochers des Carpates septentrionales et orientales, jusqu'à une altitude de 2 500 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Europe centrale, présente à l'état sauvage en Pologne, République tchèque, Slovaquie, Hongrie, Ukraine, Roumanie, Serbie et Croatie. Elle pousse dans les forêts et sur les rochers des Carpates septentrionales et orientales, jusqu'à une altitude de 2 500 m.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est une plante ornementale, plantée pour ses fleurs décoratives.
 </t>
@@ -605,13 +623,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été nommé en premier par le botaniste néerlandais Nikolaus Joseph von Jacquin en 1771[1]. Philipp Johann Ferdinand Schur lui a attribué plusieurs variétés qui ne sont pas reconnues aujourd'hui et sont classées comme synonymes de Campanula carpatica[3].
-Étymologie
-Campanula signifie « clochette » et carpatica signifie « des Carpates »[2].
-Synonymes
-Voici la liste des synonymes de Campanula carpatica[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été nommé en premier par le botaniste néerlandais Nikolaus Joseph von Jacquin en 1771. Philipp Johann Ferdinand Schur lui a attribué plusieurs variétés qui ne sont pas reconnues aujourd'hui et sont classées comme synonymes de Campanula carpatica.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Campanule_des_Carpathes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanule_des_Carpathes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula signifie « clochette » et carpatica signifie « des Carpates ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Campanule_des_Carpathes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Campanule_des_Carpathes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Voici la liste des synonymes de Campanula carpatica :
 Campanula carpatica f. dasycarpa (Schur) Tacik
 Campanula carpatica var. dasycarpa Schur
 Campanula carpatica var. grandiflora Schur
